--- a/ZMR250_FPV_TX/FPV_TX_BOM.xlsx
+++ b/ZMR250_FPV_TX/FPV_TX_BOM.xlsx
@@ -216,17 +216,33 @@
     <t>SPST</t>
   </si>
   <si>
-    <t>35V/220u</t>
+    <t>35V/33u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,8 +265,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -258,7 +278,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,7 +615,7 @@
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -958,6 +982,7 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ZMR250_FPV_TX/FPV_TX_BOM.xlsx
+++ b/ZMR250_FPV_TX/FPV_TX_BOM.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="460" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="3520" yWindow="1860" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM-TXv1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM-TXv1.2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -189,12 +190,6 @@
     <t>Not Digikey Stuff</t>
   </si>
   <si>
-    <t>Plolou module:</t>
-  </si>
-  <si>
-    <t>https://www.pololu.com/product/2106</t>
-  </si>
-  <si>
     <t>TX Module</t>
   </si>
   <si>
@@ -217,6 +212,84 @@
   </si>
   <si>
     <t>35V/33u</t>
+  </si>
+  <si>
+    <t>0805 / 150k</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MCR10ERTF1503/RHM150KCHCT-ND/4084575</t>
+  </si>
+  <si>
+    <t>RHM150kCHCT-ND</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Plolou SMPS</t>
+  </si>
+  <si>
+    <t>3.3V / 500mA</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2842</t>
+  </si>
+  <si>
+    <t>D24V5F3</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/AP2112K-3.3TRG1/AP2112K-3.3TRG1DICT-ND/4505257</t>
+  </si>
+  <si>
+    <t>AP2112K-3.3TRG1DICT-ND</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>3.3V  / 600mA</t>
+  </si>
+  <si>
+    <t>OPTIONAL?</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>200mW 5.8G</t>
+  </si>
+  <si>
+    <t>TX5823</t>
+  </si>
+  <si>
+    <t>For SMPS</t>
+  </si>
+  <si>
+    <t>5 pin male</t>
+  </si>
+  <si>
+    <t>5 Pin female</t>
+  </si>
+  <si>
+    <t>WM1745-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0530480510/WM1745-ND/242867</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0510210500/WM1723-ND/242845</t>
+  </si>
+  <si>
+    <t>WM1723-ND</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>28/30 AWG</t>
+  </si>
+  <si>
+    <t>Recommend 30AWG silicon wire - for connector cables</t>
   </si>
 </sst>
 </file>
@@ -265,8 +338,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,11 +380,40 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,7 +757,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -647,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -855,7 +986,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -895,7 +1026,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -937,10 +1068,16 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -951,10 +1088,10 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -965,16 +1102,494 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
